--- a/similarities/split_global/harmonic_similarity_timestamps_346.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_346.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,382 +484,394 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_208</t>
+          <t>schubert-winterreise_170</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_108</t>
+          <t>jaah_83</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min'], ['D:min', 'A:7', 'D:min', 'D:min/A', 'A:7']]</t>
+          <t>['A:min7/C', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min'], ['A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7']]</t>
+          <t>['A:min7', 'D:7', 'G']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:01:54.680000', '0:02:12.880000'), ('0:00:16.020000', '0:00:50.780000')]</t>
+          <t>('0:01:08.800000', '0:01:16.200000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:27.820000', '0:00:37.720000'), ('0:00:32.700000', '0:00:40.640000')]</t>
+          <t>('0:00:14.530000', '0:00:17.430000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-208#t=114.68', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-208#t=16.02']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-170#t=68.8</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-108#t=27.82', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-108#t=32.7']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-83#t=14.53</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_177</t>
+          <t>schubert-winterreise_129</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_43</t>
+          <t>schubert-winterreise_78</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['A:min/E', 'E:7', 'A:min']]</t>
+          <t>['F:min', 'C:maj', 'F:min']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>['D:min', 'A:maj', 'D:min']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:01:23.100000', '0:01:30.020000')]</t>
+          <t>('0:00:00.780000', '0:00:05.260000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:41.320000', '0:00:48.940000')]</t>
+          <t>('0:00:07.400000', '0:00:12.020000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-177#t=83.1']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-129#t=0.78</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-43#t=41.32']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-78#t=7.4</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
+          <t>jaah_16</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_202</t>
+          <t>jaah_28</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7/C', 'G:maj/B'], ['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>['B:min7', 'E:7', 'A:maj6', 'E:7']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj'], ['F:maj/A', 'A#:maj', 'F:maj/C']]</t>
+          <t>['Eb:min7', 'Ab:7', 'Db:maj6', 'Ab:7']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:01:08.640000', '0:01:17.380000'), ('0:00:16.820000', '0:00:23.180000')]</t>
+          <t>('0:00:20.300000', '0:00:24.050000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:01:03.100000', '0:01:04.320000'), ('0:01:01.480000', '0:01:03.580000')]</t>
+          <t>('0:00:03.200000', '0:00:08.210000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-55#t=68.64', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-55#t=16.82']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-16#t=20.3</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-202#t=63.1', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-202#t=61.48']</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-28#t=3.2</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_110</t>
+          <t>schubert-winterreise_48</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_138</t>
+          <t>schubert-winterreise_205</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>['F:maj', 'F:7', 'A#:maj']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['C:min', 'G:7', 'C:min']]</t>
+          <t>['G:maj', 'G:7/F', 'C:maj/E']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:37.360000', '0:00:44.660000')]</t>
+          <t>('0:00:14.480000', '0:00:22.820000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:01.129708', '0:00:06.125260')]</t>
+          <t>('0:00:53.320000', '0:01:01.840000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-110#t=37.36']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-48#t=14.48</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-138#t=1.129708']</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-205#t=53.32</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr">
         <is>
-          <t>spotify:track:6tQvjqDIK9GXWIC6mejms8</t>
-        </is>
-      </c>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_141</t>
+          <t>isophonics_152</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_288</t>
+          <t>isophonics_184</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:maj', 'F:maj'], ['G:maj/B', 'C:maj/E', 'F:maj']]</t>
+          <t>['E/5', 'A/3', 'A:min/b3']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['E', 'B', 'E'], ['F#', 'B', 'E']]</t>
+          <t>['E', 'A', 'A:min']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:00.780000', '0:00:24.860000'), ('0:03:26.500000', '0:03:29.360000')]</t>
+          <t>('0:00:39.604000', '0:00:42.712000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:16.701519', '0:00:23.528185'), ('0:00:29.008095', '0:00:34.615714')]</t>
+          <t>('0:00:10.873310', '0:00:18.477845')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-141#t=0.78', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-141#t=206.5']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-152#t=39.604</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-288#t=16.701519', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-288#t=29.008095']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-184#t=10.87331</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>jaah_3</t>
+          <t>schubert-winterreise_170</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_72</t>
+          <t>isophonics_298</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['Eb', 'Bb:7', 'Eb', 'Bb:7', 'Eb']]</t>
+          <t>['G:maj', 'C:maj/G', 'G:maj']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
+          <t>['G', 'C', 'G']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:30.050000', '0:00:38.220000')]</t>
+          <t>('0:00:16.020000', '0:00:22.500000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:00.380000', '0:00:08.900000')]</t>
+          <t>('0:00:00.344657', '0:00:11.337709')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-3#t=30.05']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-170#t=16.02</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-72#t=0.38']</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-298#t=0.344657</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
       <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_95</t>
+          <t>schubert-winterreise_84</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_192</t>
+          <t>isophonics_174</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['C:min/G', 'G', 'C:min']]</t>
+          <t>['D#:maj', 'A#:maj', 'D#:maj']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['F:min/C', 'C', 'F:min/C']]</t>
+          <t>['D', 'A', 'D']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:11.240000', '0:00:17.760000')]</t>
+          <t>('0:00:00.780000', '0:00:19.180000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:47.680000', '0:00:51.980000')]</t>
+          <t>('0:00:06.536000', '0:00:11.853000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-95#t=11.24']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-84#t=0.78</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-192#t=47.68']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-174#t=6.536</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_26</t>
+          <t>schubert-winterreise_113</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_46</t>
+          <t>schubert-winterreise_71</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['F:maj', 'A#:maj', 'F:maj']]</t>
+          <t>['F:maj/C', 'C:7', 'F:min/C']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'D']]</t>
+          <t>['C:maj/G', 'G:7', 'C:min']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:02:04.920000', '0:02:08.840000')]</t>
+          <t>('0:00:34.340000', '0:00:35.880000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:28.921995', '0:00:33.101587')]</t>
+          <t>('0:00:56.440000', '0:01:06.340000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-26#t=124.92']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-113#t=34.34</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-46#t=28.921995']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-71#t=56.44</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -867,331 +879,355 @@
           <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>jaah_29</t>
+          <t>schubert-winterreise_205</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_298</t>
+          <t>isophonics_144</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['Ab', 'Db', 'Ab']]</t>
+          <t>['C:min', 'G:min/A#', 'C:min']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'G']]</t>
+          <t>['A:min', 'E:min', 'A:min']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:01:56.690000', '0:02:02.570000')]</t>
+          <t>('0:01:27.320000', '0:01:37.720000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:00.344657', '0:00:11.337709')]</t>
+          <t>('0:00:28.536000', '0:00:33.834000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-29#t=116.69']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-205#t=87.32</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-298#t=0.344657']</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-144#t=28.536</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
       <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_6</t>
+          <t>isophonics_61</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_164</t>
+          <t>schubert-winterreise_74</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['F#:7/B', 'B:min', 'E:min/B', 'B:min']]</t>
+          <t>['B:min/5', 'F#:min', 'C#:7', 'F#:min']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['G:7', 'C:min', 'F:min', 'C:min']]</t>
+          <t>['A#:min', 'F:min', 'C:7', 'F:min']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:24.760000', '0:00:34.920000')]</t>
+          <t>('0:00:23.632675', '0:00:27.452358')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:02.081000', '0:00:13.841000')]</t>
+          <t>('0:00:08.300000', '0:00:14.360000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-6#t=24.76']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-61#t=23.632675</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-164#t=2.081']</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-74#t=8.3</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_117</t>
+          <t>schubert-winterreise_36</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_163</t>
+          <t>isophonics_241</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>['G:maj', 'A:min/C', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>['C', 'D:min', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:27.760000', '0:00:40.180000')]</t>
+          <t>('0:00:26.720000', '0:00:34.360000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:01:47.900000', '0:01:49.300000')]</t>
+          <t>('0:01:42.694000', '0:01:52.530000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-117#t=27.76']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-36#t=26.72</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-163#t=107.9']</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-241#t=102.694</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_182</t>
+          <t>schubert-winterreise_139</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_11</t>
+          <t>jaah_39</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
+          <t>['B:maj', 'A#:maj', 'B:maj', 'A#:maj']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['C:maj', 'F:maj', 'C:maj/E']]</t>
+          <t>['E', 'Eb', 'E', 'Eb']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:02:34.020000', '0:02:39.240000')]</t>
+          <t>('0:00:50.440000', '0:00:54.600000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:01:09.860000', '0:01:13.740000')]</t>
+          <t>('0:00:04.990000', '0:00:07.140000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-182#t=154.02']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-139#t=50.44</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-11#t=69.86']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-39#t=4.99</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_45</t>
+          <t>schubert-winterreise_121</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_52</t>
+          <t>schubert-winterreise_0</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>['C:min', 'F:min', 'C:min/G']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
+          <t>['B:min', 'E:min/B', 'B:min']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:36.660000', '0:00:43.940000')]</t>
+          <t>('0:00:10.160000', '0:00:13.840000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:01.440000', '0:00:06.660000')]</t>
+          <t>('0:00:25.480000', '0:00:32.580000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-45#t=36.66']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-121#t=10.16</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-52#t=1.44']</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-0#t=25.48</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_160</t>
+          <t>jaah_19</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_215</t>
+          <t>jaah_79</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj']]</t>
+          <t>['Bb:min7', 'Eb:7', 'Ab:maj6']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G']]</t>
+          <t>['C:min7', 'F:7', 'Bb:maj6']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:10.820000', '0:00:26.200000')]</t>
+          <t>('0:00:33.280000', '0:00:35.480000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:22.300000', '0:00:48.740000')]</t>
+          <t>('0:00:22.850000', '0:00:26.110000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-160#t=10.82']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-19#t=33.28</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-215#t=22.3']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-79#t=22.85</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>jaah_39</t>
+          <t>schubert-winterreise_178</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_296</t>
+          <t>schubert-winterreise_163</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['Ab', 'Db', 'Ab']]</t>
+          <t>['D:min/A', 'A:7', 'D:min']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj', 'G/3']]</t>
+          <t>['F:min', 'C:7', 'F:min']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:02:03.030000', '0:02:09.120000')]</t>
+          <t>('0:02:09.060000', '0:02:14.200000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:05.146000', '0:00:09.474000')]</t>
+          <t>('0:00:07.700000', '0:00:12.060000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-39#t=123.03']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-178#t=129.06</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-296#t=5.146']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-163#t=7.7</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
